--- a/output/Total_time_range_data/辽宁省/朝阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/朝阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,670 +436,735 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>老颜武率队赴天津市南开区</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-5-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202405/0171530454788919.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月9日，市委副书记、市长老颜武率队赴天津市南开区，就文旅产业发展和科技创新赋能等工作进行考察学习。南开区委副书记、区长聂伟迅陪同。副市长高宇恒参加。 南开区是天津市中心城区之一，历史悠久、古迹众多，文化底蕴深厚，旅游资源丰富。在古文化街，老颜武边走边看、边听边问，与古街管委会负责人深入交流，详细了解古街历史传承、民俗文化和运行模式等情况。他指出，天津古文化街以津味文化为核心资源，推动商贸、非遗、演艺等多业态协同发展，打造了街区与景区、历史与现代、传承与保护融合发展的样板和典范。朝阳在文旅产业发展方面拥有得天独厚的禀赋优势，尤其是红山、化石、三燕、红色“四大文化”交相辉映。要立足实际，切实找准历史文化与产业发展的结合点、发力点，努力将好文化转变为好产业。要对标对表国内一线景区景点，科学制定规划，创新体制机制，合理布局业态，加大宣传力度，有效提升朝阳文旅知名度和吸引力。要大力推进文旅重点项目建设，加强招商引资，优化营商环境，积极向上争取，努力为打好打赢攻坚之年攻坚之战作出文旅贡献。 南开区因南开大学而得名，域内拥有众多大学院所和科研机构，科技创新能力位居全国前列。老颜武一行先后来到物质绿色创造与制造海河实验室和天开高教科创园，进展厅、听介绍、看图板，深入了解两家科研机构在科技研发、成果转化和企业孵化等方面的情况。他说，南开区依托深厚的科教资源优势，推动学城、创城、产城“三城”融合发展的做法，为朝阳补齐创新短板、强化创新赋能提供了有益借鉴和启示。要发挥政府引领作用，努力为各类创新主体提供一流发展环境，培育壮大更多科技型企业，形成更多新质生产力。要积极搭建校企、院企对接平台，解决企业技术攻关难题，加速科技创新成果转化。要推动企业发挥创新主体作用，做好金融、政务、商务服务保障，提升企业核心竞争力，为全市高质量发展、可持续振兴提供坚实的科技支撑。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>46</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>单义率队赴大连市学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-4-1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202404/0171193607870644.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['3月29日至30日，市委书记单义率队赴大连市学习考察。两天来，考察团一行围绕产业引领、科技创新、发展新质生产力等，深入企业高校，看现场、听介绍，认真学习借鉴大连的好经验好做法，为坚定不移推动朝阳高质量发展、打好打赢攻坚之年攻坚之战蓄势赋能。市领导蒋涛、宁国军、李显通参加。', '中国科学院大连化物所具有超强的研究实力和浓厚的学术氛围，多项科学研究走在全国乃至世界前列。单义一行来到大连化物所，详细了解研究所团队建设、科技创新平台搭建、产学研成果转化，表示朝阳将立足资源优势和产业基础，围绕绿电制氢制氨制甲醇、甲醇应用、钒钛磁铁开发利用等方面，积极与大连方面深入交流、开展合作、实现共赢。 大连融科储能技术发展有限公司是全球领先的全钒液流电池储能系统服务商，获批设立国家能源液流储能电池技术重点实验室和国家地方联建工程研究中心。单义一行深入企业，面对面倾听科技人员关于科技研发、成果转化等创新成果介绍，详细了解全钒液流电池技术研发应用、市场开拓、发展趋势、产业前景等情况，双方围绕新能源产业发展、延伸产业链条等深入交流探讨，达成合作意向。 大连医科大学历史悠久、底蕴深厚，是国家医学人才培养和学科研究的重要基地。单义一行详细了解学校办学历史、学科建设、服务民生等情况，围绕加快推进大连医科大学与朝阳市第二医院开展教学合作座谈交流、交换意见，双方一致表示将进一步加深了解、深化合作，共同把这件既能发挥各自优势、又能实现强强联合的实事办实办好、办出成效。 大连韩伟集团是全国知名农事企业，在公司展厅，单义一行看产品、听介绍，不时就产品研发、市场前景、发展规划、深化合作等内容与企业负责人深入交流，希望大连韩伟集团充分发挥促进大连与朝阳产业合作的示范作用，进一步拓宽项目合作的深度和广度，以更加优质的农业产业化项目，加快培育新质生产力，为服务地方经济发展、促进乡村振兴增添新动能。 在大连市书法家协会，单义一行参观了大云书库文化美术馆，详细了解两市书法文化交流活动情况，希望大连、朝阳两地书协加强沟通协作，认真筹备并开展好“龙腾连海、凤舞朝阳”大连朝阳书法文化交流活动，助力朝阳进一步凸显“文明发端地 古国牛河梁”的重要价值，不断提升牛河梁红山文化的知名度和美誉度，为朝阳文化事业高质量发展贡献力量。 朝阳考察团成员在学习考察中表示，大连在产业发展、科技创新、文化旅游等方面创新能力强、发展势头好，为我们深入推进高质量发展树立了标杆、作出了示范。我们一定以大连为榜样，对标先进、查找差距、补齐短板，切实把在大连学到的先进经验做法转化为实施全面振兴新突破三年行动的生动实践。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>46</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>葫芦岛市政协来我市学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-5-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202405/0171556812913365.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月10日至11日，葫芦岛市政协主席甄国强率考察组到我市学习考察。市政协主席刘朝震出席有关活动并主持座谈会。', '考察组先后到朝阳鸟化石国家地质公园、龙城区七道泉子镇新地村基层协商议事室、凤凰山国家森林公园、德辅博物馆、朝阳市博物馆、市政协图书馆、政协文史馆等地进行实地考察，听取相关情况介绍，并与有关单位进行交流讨论。 座谈会上，市政协详细介绍了我市文旅产业融合发展、“辽事好商量、聊事为人民”平台建设、文史馆建设，讲好“辽宁故事”展示良好发展预期界别组活动、“朝阳市政协”公众号平台建设情况和市政协相关工作情况，与会两市政协深入交流、相互探讨双方好的经验做法，深化了合作共识。 考察组认为，朝阳市历史文化底蕴深厚、旅游资源得天独厚，在彰显文化特色、激活文旅市场、做活经营模式等方面形成了很好的经验做法。朝阳市将“辽事好商量、聊事为人民”协商平台搭建到群众家门口，在推动政协民主协商与基层社会治理有机结合，化解基层矛盾、解决基层难题、服务人民生活等方面发挥了重要作用，有效推动了政协协商向基层延伸。 考察组表示，此次学习考察，进一步开阔了视野、拓展了思路，将认真梳理总结学习考察成果，充分学习借鉴、消化吸收朝阳协商议事平台建设、讲好“辽宁故事”展示良好发展预期界别组活动、政协文史馆、“朝阳市政协”公众号平台建设和文旅融合发展等先进经验，将其有效转化为工作的务实举措，加快推进葫芦岛市政协各项工作迈上新台阶。', '刘朝震对葫芦岛市政协考察组一行表示欢迎。他表示，市政协将以此次葫芦岛市政协来朝阳考察为契机，围绕文旅融合、', '“两商”衔接、讲好“辽宁故事”、机关建设、对外宣传等工作，进一步与葫芦岛市政协加强沟通联系，促进优势互补，深化交流合作，形成强大工作合力，在共建共促共赢中，为做好新时代政协工作、推动辽宁实现全面振兴新突破作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>46</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>单义率队赴西部超导材料科技股份有限公司学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-4-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202404/0171323688956752.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['4月15日，市委书记单义率队赴西部超导材料科技股份有限公司学习考察，围绕钛产业发展与有关专家进行座谈交流。市领导李显通、樊功成参加。', '西部超导材料科技股份有限公司是西北有色金属研究院成果转化的典范型公司，是全世界唯一的铌钛棒、超导线材、超导磁体全流程生产企业，实现了我国超导线材产业化“零的突破”，是中国排名第一的高端钛材、超导材料制造企业和全国首批科创板上市企业。', '考察过程中，单义一行先后参观了西部超导材料科技股份有限公司的企业展厅和生产车间，详细了解科技创新、产品研发及应用、人才队伍建设等情况，随后与西北有色金属研究院、西部超导材料科技股份有限公司、西部金属材料股份有限公司有关专家进行了座谈交流。会上，单义介绍了朝阳经济社会发展情况、资源禀赋和特色产业，特别是推动钒钛磁铁产业发展的思路和举措。他说，朝阳矿产资源丰富，尤其是钒钛磁铁资源储量巨大，属低铁、高钒、高钛型，是世界上少有的高钒、高钛矿产资源，开发潜力巨大。当前，朝阳钒钛磁铁产业已经初具规模，具有一定的市场竞争力，正依托雄厚的现代冶金产业基础和先进的钛钼锆研发生产工艺，着力建设新材料和现代冶金产业集聚地。希望西北有色金属研究院及企业积极参与朝阳钒钛磁铁资源开发利用，抢滩布局新材料产业，在项目建设、先进技术、人才培养等方面加大对朝阳的支持力度，助推朝阳新材料、现代冶金等产业加快发展，在携手合作中实现互利共赢。朝阳市委、市政府将全力营造尊商敬商、亲商安商的良好环境，以优质高效服务让企业在朝安心投资、放心发展。', '与会企业和专家一致认为，钛产品应用领域广泛，特别是近年来国内石化、航空航天、电力、海洋工程、计算机以及体育休闲等行业对高端钛产品的需求持续增长，产品结构向高端转移成为其发展的必然趋势。大家一致表示，朝阳区位优势明显，工业基础雄厚，特别是钒钛资源丰富，在开发利用上具有广阔的合作空间，将在资金、技术、产业、人才等方面加大在朝阳投资布局力度，加快打造高端钛产业链，助力朝阳加快把资源优势转化为产业优势、发展胜势。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>单义率队赴本溪市学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-6-7</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202406/0171772465137974.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['6月6日，市委书记单义率队赴本溪市学习考察，出席两地合作交流座谈会并讲话。本溪市委书记吴澜主持座谈会并讲话。市委常委、市委宣传部部长琚慧敏，本溪市领导王旭征、初晓光参加。', '单义感谢本溪市委、市政府多年来给予朝阳经济社会发展的帮助和支持。他说，本溪市深入学习贯彻习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，以三年行动为总牵引，坚定不移实施“34456”发展战略，经济运行、社会大局、发展环境、干部状态持续稳定向好，呈现出强劲发展态势。本溪市产业强市工业振兴的魄力决心、善借优势文旅融合的成功经验、生态立市向绿图强的战略定力，值得我们认真学习借鉴。特别是两地在产业发展上具有很强的共通性、互补性，合作前景十分广阔，希望双方在产业协同、文体旅融合发展、“三农”工作上深化合作，携手走出一条高质量发展、可持续振兴的新路子，结出更多互利共赢的丰硕成果，共同为辽宁全面振兴新突破作出更大贡献。', '吴澜对单义一行的到来表示热烈欢迎，对朝阳市经济社会发展取得的成绩表示祝贺。他表示，朝阳深入贯彻习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，全面落实党中央部署及省委要求，扎实推进“六个着力建设”，聚焦聚力“八个攻坚突破”，经济发展势头十分迅猛，清洁能源产业破局成势，文体旅融合提档升级，推进各项工作的好经验好做法值得本溪认真学习。希望两地发挥各自优势，聚焦重点领域，加强对接合作，推动两地交流合作迈上新台阶。', '在本溪期间，我市学习考察团来到集民俗文化、生态休闲、度假旅游、餐饮娱乐于一体的小市一庄景区，看到景区体验感强、融合度高、游人如织后，单义要求，各地各有关部门要认真学习小市一庄从无到有、从小到大、从大到精的经营理念，学习本溪在推动文体旅融合发展上的新颖创意，整合好挖掘好朝阳的历史文化、城市故事、特色建筑等资源禀赋，持续优化消费供给和创新消费场景，加快建设特色鲜明的休闲旅游目的地。', '在本溪大峡谷，大家与企业负责人进行深入交流，实地体验文体旅融合发展新业态，单义强调，要立足朝阳实际，打造一系列富有地域特色的文旅产品，更好满足游客新需要、新期待，持续激发群众消费活力。 在龙新矿业，大家详细了解了项目建设运行情况，学习本溪矿山治理的成功实践，单义指出，要坚定不移走绿色发展之路，狠抓朝阳矿山治理，加大无废、无扰动、绿色低碳开发等推进力度，更好统筹矿产开发与生态保护。 在龙山泉啤酒有限公司得知公司年上缴税金过亿元，产品热销省内外，成为饮品界的“爆款”，单义表示，要坚持倒排工期、挂图作战，加速推动30万千升华润雪花啤酒项目建设，力争项目早建成、早投产、早达效。', '学习考察结束后，大家纷纷表示，本次学习考察收获颇丰，开阔了视野、增强了信心、激发了干劲，将立足本职岗位认真总结本溪市的好经验好做法，加快把学习成果转化为推动项目落地的具体行动和实际成效，在朝阳打好打赢攻坚之年攻坚之战中展现更大担当和作为。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>46</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>老颜武率队赴山东滨州学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-3-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202403/0171046694902849.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['3月13日至14日，市委副书记、市长老颜武率队赴山东省滨州市，实地参观考察西王集团和大高航空高新产业园，并重点就粮油食品加工、通航产业发展和“政企同心 亲清茶事”营商品牌打造情况，与滨州市委副书记、市长李春田以及相关部门负责人进行座谈交流。国家以及辽宁省、山东省粮食和物资储备局有关领导出席。市委常委、副市长樊功成参加。', '滨州市地处渤海之滨、黄河之洲，建市20多年来，聚力打造高端铝材、精细化工、智能纺织、食品加工和畜禽水产5个千亿级产业集群，2023年地区生产总值突破3000亿元，品质滨州建设取得明显成效。', '老颜武首先代表朝阳市委、市政府对滨州市的热情接待表达由衷敬意，对国、省粮食和物资储备局多年来对朝阳的支持表示衷心感谢。在简要介绍朝阳市情后，老颜武重点介绍了朝阳厚重的历史文化、丰富的发展资源和良好的产业基础，并表示，站在新的历史起点，朝阳正深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，积极抢抓东北振兴重大机遇，锚定省委、省政府赋予朝阳建设融入京津冀协同发展战略先导区的全新发展定位，依托丰富的风光、矿产、农业、文旅、空域等资源优势，全力打造新能源、新材料、现代冶金、食品工业和文旅产业等14个重点产业集群，加快布局通航产业、低空经济等未来产业，着眼为打造辽宁新时代“六地”强支撑、作贡献，大力推进“六个着力建设”，全力打好打赢攻坚之年攻坚之战。', '老颜武指出，滨州与朝阳人缘相亲、业缘相近，尤其是在粮油食品加工、“滨周到”营商品牌打造和低空经济、通航产业发展等方面积累了很多好经验好做法，值得学习借鉴，努力为朝阳高质量发展、可持续振兴赋能增智。希望滨州市有关领导和部门早日到朝阳走一走看一看，共同建立亲密友好、互通有无合作关系，助推两市高质量发展取得新的更大成绩。希望国、省粮食和物资储备局一如既往支持关注朝阳，为朝阳粮食和物资储备事业振兴发展助力赋能。', '李春田对老颜武一行的到来表示热烈欢迎，对近年来朝阳市经济社会高质量发展取得的显著成效表示由衷钦佩。他在详细介绍滨州经济社会发展情况后说，朝阳与滨州同属环渤海经济圈，人文相近、地域相通、产业相似，两地具备深入交流合作的坚实基础和巨大潜力。期待以此次朝阳市代表团考察为契机，建立两市常态化交流协作机制，全力打造朝阳市与滨州市携手共进、合作共赢的崭新局面。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>46</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议传达辽宁省党政代表团赴吉林黑龙江内蒙古等地学习考察及总结交流会精神研究我市贯彻落实工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-5-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202305/0168420232278591.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['市委常委会召开（扩大）会议 传达辽宁省党政代表团赴吉林黑龙江内蒙古等地学习考察及总结交流会精神 研究我市贯彻落实工作-决策部署-朝阳市人民政府', '市委常委会召开（扩大）会议 传达辽宁省党政代表团赴吉林黑龙江内蒙古等地学习考察及总结交流会精神 研究我市贯彻落实工作', '5月15日，市委常委会召开（扩大）会议，传达辽宁省党政代表团赴吉林、黑龙江、内蒙古等地学习考察及总结交流会精神，研究我市贯彻落实工作。市委书记单义主持并讲话。谢卫东、刘朝震、张健等市领导参加。', '会议指出 ，辽宁省党政代表团赴吉林、黑龙江、内蒙古等地学习考察，充分彰显了省委坚定不移贯彻落实党的二十大精神和习近平总书记关于东北、辽宁振兴发展重要讲话、指示批示精神的高度政治自觉，充分体现了省委在更高层次、更深领域与两省一区加强务实合作、实现互利共赢、共同推动东北振兴实现新突破的强烈使命担当，充分反映了省委带领辽宁广大干部心无旁骛抓发展、谋突破、促振兴的坚定信心和决心，展示了辽宁良好形象，取得了丰硕合作成果。全市上下要以坐不住、等不起、慢不得的强烈危机感和紧迫感，进一步明晰实施三年行动的思路，坚持一手抓高质量发展、一手抓全面从严治党，以超常规举措推进重点任务落实，为打好打赢新时代“辽沈战役”作出朝阳贡献。', '会议强调 ，各地各部门要在深化、实化、细化上下功夫，切实把学习考察成果转化为推动振兴发展的具体思路和具体举措。', '一要增强危机意识，加快振兴突破。真正拿出大干、奋斗的姿态和超常规的举措，奋战“二季度”、确保“双过半”，为三年行动首战告捷打下坚实基础。', '二要做大做强主业，深化结构调整。做好结构调整“三篇大文章”，以打造“5211”百亿级产业基地为重点，加快形成强大核心竞争力。', '三要扩大开放合作，激活发展动力。加快建设融入京津冀协同发展战略先导区，积极参与东北海陆大通道和“中蒙俄”经济走廊建设，深入开展省级开发区能级提升行动，真正把开发区打造成朝阳高质量发展的龙头和发动机。', '四要提升治理水平，改善城乡形象。坚持以创建文明城市和农村人居环境整治为抓手，努力把城乡管理得更加精细科学，让朝阳的颜值更美、品位更高、吸引力更强。', '五要守牢安全底线，确保大局稳定。坚持一手抓发展、一手抓安全，以“时时放心不下”的责任感抓好安全生产、社会治安、矿山治理、防汛抗旱等各项工作，为经济社会发展创造安全稳定的社会环境。', '六要深入转变作风，提振精神状态。一刻不停推进全面从严治党，全面提高工作质量标准，全力整治不担当不作为，形成比学赶超的浓厚氛围，确保全面振兴新突破三年行动取得扎实成效。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>46</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>单义谢卫东率我市党政代表团赴赤峰市学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-5-24</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202305/0168488978789172.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['5月23日，市委书记、市人大常委会党组书记单义，市委副书记、市长谢卫东率我市党政代表团，就深入贯彻党的二十大精神，认真落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，全面落实省委有关要求，带着问题、带着任务赴内蒙古自治区赤峰市学习考察，以实际行动确保党中央决策部署及省委工作要求落到实处，以实际成效推动两市开展高质量区域协作、加快实现全面振兴。市政协主席刘朝震参加。赤峰市委书记万超岐，市委副书记、市长王旺盛陪同。', '如何做大做强产业园区，是本次学习考察的一项重要内容。考察首日，代表团先后考察了宁城汐子产业园区中唐特钢有限公司、赤峰市农牧科技产业园、内蒙古赤峰商贸服务物流园区红山园，每到一处，代表团成员都专心听、认真看、仔细问，全面了解赤峰市在工业企业运行、农牧业产业发展、商贸服务物流园区建设等方面的成功经验和先进做法。看到赤峰产业园区发展势头强劲、企业运行良好、项目有序推进、数字赋能明显、提标改造增效，代表团成员感到由衷钦佩，大家纷纷表示，朝阳与赤峰两地在发展思路、项目建设、产业发展等方面具有很多相似之处，具有广阔合作空间，一定认真学习借鉴先进经验，加快推动两地在园区建设、项目合作、成果孵化等方面实现共享共赢、融合发展，携手谱写高质量合作发展新篇章。', '朝阳与赤峰地域相邻、人文相通，文化旅游资源丰富，游客往来频繁。赤峰博物馆位于赤峰市新城区富河街，新馆大楼主体工程建筑面积1.1万平方米，是一座集收藏、研究、展示为一体的多功能现代化博物馆。考察中，代表团成员认真倾听讲解，仔细察看展陈，对赤峰博物馆将赤峰地区新石器时代、北方青铜文化、辽金时期及蒙元时期的几次文化高峰，用专题展的形式进行陈列展示的做法给予高度评价，认为这种方式不仅突出了赤峰地区考古学文化、历史文化特色，也全面反映了每一时段的文化特点，形成了特有的展陈风格，值得朝阳学习借鉴。期待双方加快文旅融合，共同推进红山文化联合申遗等工作，早日使“红山文化”成为两地共用共享的文化品牌和旅游名片。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>46</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>谢卫东率队赴上海优势金控资产管理有限公司</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-9-29</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202209/0166441536412087.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['9月26日，正在参加辽宁——长三角招商引资促进周活动的市委副书记、市长谢卫东，率队赴上海优势金控资产管理有限公司考察学习，与企业董事长吴克忠就推动域内企业上市、资本招商、数字经济等工作进行深入交流。副市长王一凡参加。', '优势金控是中国最早一批从事私募股权投资的机构，经过20年发展，已成为集风险投资、私募股权投资、产业投资和企业兼并购重组业务于一体的综合性、国际化金融控股投资集团。集团通过“股权投资”和“产业投资”双轮驱动投资策略，投资项目194家。', '在座谈会上，谢卫东简要介绍朝阳的交通区位、资源禀赋、产业基础、营商环境和未来发展规划等情况。他说，朝阳作为后发崛起的城市，正深入贯彻落实新发展理念和高质量发展要求，依托域内资源优势、基础优势、后发优势，积极抢抓进入高铁时代和产业转移等重大机遇，全力建设融入京津冀协同发展战略先导区，打造辽宁对外开放合作西门户和新增长极。优势资本是国内领先的私募股权投资机构，有着非常专业的投资团队和丰富的资本运作经验，在培育企业上市、做大做强产业方面有着成功的经验。衷心希望优势资本在朝阳转型发展的关键期，尽快组建团队赴朝考察，在企业上市、资本运作等方面给予朝阳专业指导，携手共创美好未来。', '吴克忠对谢卫东一行的到来表示热烈欢迎，并介绍了企业发展历程，尤其是与地方政府在产业投资领域合作的实践经验，以及推动区域经济高质量发展的成功案例。他说，朝阳市拥有良好的区位优势、资源优势和环境优势，我们将择机到朝阳考察、洽谈、合作，争取发挥资金、人才等方面优势，在助力朝阳高质量发展上贡献企业力量。', '随后，该企业相关负责人分别就促进上市、EOD产业运营、数字经济等相关解决方案进行了介绍。考察组成员纷纷表示，通过此次考察学习，开阔了视野、提升了认识、增强了信心，将适时邀请企业到朝阳就企业上市、资本运作等方面问诊把脉，推动本地企业在融入资本市场中实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>46</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>铁岭市考察团来我市学习考察谢卫东陪同</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-9-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202209/0166381212575369.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['9月20日，铁岭市委常委、副市长王立伟率铁岭市考察团，来我市就工业经济高质量发展等重点工作进行学习考察。市委副书记、市长谢卫东陪同。副市长王一凡参加。', '考察团一行先后来到朝阳金达钛业股份有限公司、辽宁新都黄金有限责任公司项目现场，认真考察招商引资、项目建设、数字化转型等情况。每到一处，他们都认真听、仔细看、详细问，深入了解我市经济社会发展成效及经验。考察团成员一致认为，朝阳市发展思路清晰，工作落实有力，干事创业劲头十足，经济社会发展经验值得学习。', '谢卫东代表市委、市政府对铁岭市考察团的到来表示欢迎，并简要介绍了我市发展概况。他表示，朝阳市资源丰富、文化底蕴深厚，随着多条高铁线路建成通车，交通优势、区位优势更加凸显。一直以来，朝阳市深入贯彻习近平总书记系列重要讲话精神，坚决落实党中央和省委、省政府决策部署，坚定不移贯彻新发展理念，全力抓好项目建设。经过“十三五”时期特别是后三年以来持续积淀，在项目建设方面取得一定成效，一批重大项目落地达产。当前，朝阳市正按照党中央“疫情要防住、经济要稳住、发展要安全”的重要要求，笃定高质量发展不动摇，全力引进高质量项目，加快企业科技创新、数字赋能，推进朝阳绿色低碳循环发展。朝阳与铁岭同为辽西北地区的友好兄弟城市，双方经济合作、人文往来密切。希望朝阳和铁岭两地进一步加强沟通、相互支持，推动两地经济社会高质量发展不断取得新进步。', '王立伟对我市超前的发展思路、务实的工作作风以及取得的发展成就给予高度赞赏。他表示，朝阳市把高质量发展要求贯穿发展全过程和各领域，经济社会发展取得了令人瞩目的成绩，上半年经济总量继续保持在全省第七位，在开放发展、项目立市、创新驱动方面积累了朝阳经验。铁岭市将认真研究、学习和借鉴朝阳市在抓高质量项目、老企业转型升级、循环经济发展等各方面的好经验好做法，推动各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>46</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>朝阳市赴沈抚新区学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-8-26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202108/0163289765645138.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月24日，市政府副市长王一凡带领市商务局部分人员和全市七个开发区分管招商的主要领导，赴沈抚新区考察学习。我市考察团先后参观了沈抚新区规划展览馆、数字经济产业园，并就开发区体制机制创新、招商引资创新和社会化运营等问题进行深入交流。', '在考察学习过程中，副市长王一凡就社会化招商、图谱化招商和产业化招商等问题，与沈抚新区进行充分探讨与研讨，市商务局局长就组建招商集团、破除招商路径依赖、实施人才聘任制等问题进行详细的询问与了解，各开发区围绕我市8大产业集群和17个产业链条，与沈抚新区交换意见，为下一步合作奠定了坚实的基础。王一凡副市长强调，我市开发区要深入学习领会沈抚新区的先进经验，结合本地实际，引进、吸收、创造出符合本地实际的社会化招商之路，全方位推动开发区高质量发展，将开发区打造成为我市经济发展的引擎。', '市商务局将抓住产业结构转型的有力契机，学习沈抚新区的先进做法和经验，指导、推动开发区社会化招商、企业化运营、项目化考核，实施社会化招商试点工作，更好地服务开发区招商活动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>46</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>张淑萍谢卫东带队就先导区建设到北京市朝阳区学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-3-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202303/0167988078683621.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['在全市上下深入学习贯彻党的二十大精神和全国两会精神，奋力实现全面振兴新突破之际，3月24日至25日，我市党政代表团赴北京市朝阳区，围绕加快建设融入京津冀协同发展战略先导区，积极主动加强对接，共商合作发展大计，在新起点上携手推进双方更加紧密融合、更高质量发展。省人大常委会副主任、市委书记张淑萍，市委副书记、市长谢卫东率队学习考察，市政协主席刘朝震参加。北京市朝阳区委书记文献，区委副书记、区长吴小杰，区人大常委会主任陈宏志分别陪同考察。', '文献代表朝阳区委、区政府对我市党政代表团来京考察表示欢迎。他说，通过观看《朝阳市市情宣传片》和朝阳市经济社会发展情况介绍，我们更加深入地了解了朝阳市的发展变化。特别是张淑萍书记的讲话，站位高、谋划深、招数实，让我们深切感受到两地合作的良好态势和广阔前景。希望双方在以下方面实现更深层次的双向融通、共建双赢。畅通交流渠道，加强在信息共享、人才交流等方面搭建平台，实现全方位合作。促进产业协作，实现在数字经济、国际贸易、新能源等领域深度合作，特别要加大农产品产销对接力度，建立农副产品物流基地和连锁专卖店，推动朝阳市农产品进京，丰富朝阳区群众的米袋子、菜篮子。推进园区共建，紧紧围绕招商引资、基础设施建设等加强交流借鉴，进一步提升园区共谋共建质效。打造文旅品牌，通过建立资源共享、信息互换、市场共建、客源共拓的合作机制，共同打造“朝阳”文旅品牌。深化医疗教育合作，特别要在远程医疗教育方面积极探索合作模式、取得扎实成效。', '张淑萍代表朝阳市委、市政府对北京市朝阳区长期以来给予朝阳市的支持帮助表示感谢，对朝阳区经济社会发展取得的新成绩表示钦佩。她说，通过实地考察和座谈交流，我们进一步感受到了朝阳区高质量发展的强劲态势，特别是，朝阳区良好的经济发展状况、美丽的城区建设、悠久的历史文化、开放的合作理念、现代的商务氛围令人印象深刻。当前，朝阳市正深入贯彻落实习近平总书记系列重要讲话精神和全国两会精神，按照省委全面振兴新突破三年行动要求，全力以赴拼经济、兴产业、抓发展，加快把朝阳市比较优势转化为发展优势、把文化优势转化为产业优势、把区位优势转化为融入优势、把潜在优势转化为竞争优势，努力把朝阳市建设成为清洁能源供给地、绿色农产品供应基地和休闲旅游目的地。朝阳市实现全面振兴新突破，需要自身努力，也需要对标先进，抢抓省委赋予朝阳市建设融入京津冀协同发展战略先导区的历史机遇，加强与京津冀特别是北京朝阳区的合作。希望我们携手共进、深化合作，进一步深化错位承接、科技成果转化、文化旅游合作、农业产销合作、医疗教育合作，一起做好“双向融通、共建双赢”这篇大文章。', '学习考察期间，我市党政代表团实地考察了中关村朝阳园电子城IC/PIC创新中心、360集团、阿里巴巴集团等企业，并深入座谈交流。会上，谢卫东介绍了我市经济社会发展情况。', '北京市朝阳区领导黄晓伟、聂杰英、舒毕磊、赵年生，我市领导汪立坤、牛殿祥分别参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>单义听取市委考察团赴浙江学习考察千万工程有关情况汇报研究部署下步工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-6-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202306/0168808796531819.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['单义听取市委考察团赴浙江学习考察“千万工程”有关情况汇报 研究部署下步工作-今日朝阳-朝阳市人民政府', '日前，市委书记、市人大常委会党组书记单义主持召开市委专题会议，听取市委考察团赴浙江学习考察“千万工程”有关情况汇报，研究部署下步工作。市委副书记、市委政法委书记张健，市委常委、市委秘书长汪立坤，市政府党组成员、副市级干部宋臻参加。', '自推动的一项重大决策，是推动高质量发展的鲜活教材，是习近平新时代中国特色社会主义思想的成功实践。我们要主动对标对表，在吃透党中央精神的前提下开展工作，主动想事、干事、谋事，确保“千万工程”各项任务要求在朝阳不折不扣落到实处。', '单义强调，“千万工程”是一项系统工程，我们要强化系统思维，统筹推进、合力攻坚。一要深入谋划，狠抓工作落实。进一步细化实化工作举措，落实落细各方责任，切实做到可量化、可操作、可考核。要聚焦农村人居环境整治、完善农村基础设施、加强基层社会治理，不断提升人民群众的获得感、幸福感、安全感。二要强化支撑，做大做强产业。立足现有农业基础，全力提升农产品精深加工能力和水平，加快完善农村电商物流服务体系，推动农文旅深度融合发展，补短板、锻长板、育新板，推动朝阳由农业大市向农业强市转变。三要抓好标杆，强化典型示范。成立工作专班，指导建平县小平房村等完善发展规划，以点带面推动全市乡村建设水平实现', '单义强调，要切实发挥农村基层党组织领导核心作用，扎实推进抓党建促乡村振兴，尤其要选优配强乡村两级基层党组织领导班子，打造一支懂农业、爱农村、爱农民的工作队伍，持续增', '强基层党组织活力和战斗力。要强化村书记带头引领，走在前、干在先，当先锋、作表率，进一步夯实基层战斗堡垒，以乡村全面振兴助力朝阳全面振兴新突破三年行动取得扎实成效。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>单义带队赴三星堆遗址金沙遗址</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-3-8</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202403/0170986349950618.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为进一步做好牛河梁红山文化遗址保护利用工作，3月7日，市委书记单义带队赴四川三星堆遗址、金沙遗址，考察学习文化遗址发掘、文物保护修复、文化研究阐释、申报世界文化遗产等方面的经验做法。市领导李显通、樊功成参加。', '三星堆遗址是迄今长江流域规模最大的商时期古蜀国都城遗址，是中华文明多元一体起源、发展格局的重要见证，是全国重点文物保护单位、首批国家考古遗址公园、首批国家文物保护利用示范区创建单位。金沙遗址被评选为', '“2001年全国十大考古发现”，与三星堆遗址共同入选《中国世界文化遗产预备名单》。', '单义一行认真参观了三星堆博物馆新馆、考古方舱和遗址公园，金沙遗址考古现场和文物陈列展厅，详细了解遗址发掘历程和古蜀文明成果，仔细听取场馆布局、文物展陈、队伍建设等情况介绍。单义表示，两个遗址规划建设科学，博物馆展览内容丰富、展示形式多样、特色特点突出，智能化、信息化水平高，对于完善提升牛河梁国家考古遗址公园有着很强的借鉴意义，我们要学习先进理念和有效做法，进一步加强牛河梁红山文化遗址的规划建设、研究阐释和展示传播，扎实做好保护、传承和弘扬等各项工作，让文物活起来、历史看得见、文脉传下去。', '“中华文明探源工程”把牛河梁红山文化遗址列为“古国时代”第一阶段的代表，进一步明确了牛河梁红山文化遗址的历史价值，奠定了红山文化在中华文明起源进程中的直根系地位。我们要深入学习贯彻习近平文化思想，全面落实习近平总书记关于文物保护利用重要讲话和指示精神，深度挖掘牛河梁红山文化的历史底蕴和文化内涵，全力做好文物保护利用、文化遗产发掘研究工作，让红山文化在新时代焕发出更加绚烂夺目的光彩。要坚持以申促建、以申提质，高标准高质量推进申遗工作，让申遗过程成为更好保护、传承、利用、传播的过程，把红山文化这张名片擦得更亮。要坚持以文塑旅、以旅彰文，精心打造精品旅游线路，深入开展特色鲜明、受众广泛的宣传推介，在更大范围、更高层次叫响“文明发端地 古国牛河梁”，加快把文化资源优势转化为产业发展优势，着力建设特色鲜明的休闲旅游目的地，为打好打赢攻坚之年攻坚之战提供坚实支撑。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>46</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>单义谢卫东率队赴天津市滨海新区</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-9-1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202309/0169353093643894.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['8月31日，市委书记、市人大常委会党组书记单义，市委副书记、市长谢卫东共同率队赴天津市滨海新区考察学习，畅叙两地情谊、深化务实合作，携手推动两地高质量发展。天津市委常委、滨海新区区委书记连茂君陪同。朝阳市委常委、市委秘书长汪立坤，滨海新区领导李龙、张兴瑞参加。', '单义、谢卫东一行参观考察了美丽滨城会客厅、滨海新区现代产业交流展示中心、天津茱莉亚学院、区政务服务办审批大厅、滨海文化中心、国家海洋博物馆、中新生态城智慧中心等场所。考察中，单义、谢卫东表示，滨海新区和朝阳地缘相近、人文相亲，党政交往密切，双方互动频繁。此次到美丽的滨城考察，就是进一步学习滨海新区在营商环境、招商引资、项目建设、创新驱动、园区规划、文化旅游、城市建设等方面的好经验、好做法，进一步增进双方情谊，加深合作基础，携手推进两地高质量发展。', '在会见时，连茂君代表滨海新区区委、区政府对朝阳市党政主要领导的到来表示欢迎，并简要介绍了滨海新区经济社会发展情况。他说，近年来，朝阳市全力以赴拼经济、兴产业、抓发展，经济社会发展取得了令人瞩目的成绩。当前，滨海新区正按照天津市委、市政府部署实施的“十项行动”新定位、新使命，扎实实施滨海新区高质量发展支撑引领行动，全面推进京津冀协同发展战略合作功能区、现代化产业聚集区、创新驱动发展示范区建设等“八大工程”，经济社会高质量发展态势得到持续巩固。下一步，希望双方在服务京津冀协同发展、深化文化旅游合作、加强头部企业配套、提升城市规划管理、对接港口通道、中欧班列等方面，进一步加强对接沟通，共促区域协调发展，切实把资源优势转化为发展优势，全面推动两地合作走深走实。', '单义、谢卫东表示，滨海新区是天津改革开放的重要窗口和外商投资的集聚地，是北方首个自由贸易试验区，也是京津冀区域内最便捷的“出海口”，正紧紧抓住京津冀协同发展重大战略机遇，大力推进创新协同和产业协作，为建设京津冀世界级城市群、打造世界级先进制造业集群贡献力量。当前，朝阳正深入学习贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，奋力实施全面振兴新突破三年行动，立足资源禀赋，抢抓发展机遇，加快建设融入京津冀协同发展战略先导区，全力打造清洁能源供给地、绿色农产品供应基地、休闲旅游目的地。朝阳作为辽宁开放合作的“西门户”，在京津冀协同发展战略先导区建设上肩负着当先锋、打头阵的重任，与滨海新区深化合作，是朝阳建设先导区的重要战略选择，是推动高质量发展的现实需要。希望双方在清洁能源、产业配套、文旅融合，农业产销、成果转化、教育医疗、通道对接、人才交流等方面，加强合作、精准对接，共同谱写高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>单义主持召开市委专题会议传达学习贯彻辽宁省党政代表团赴江苏上海浙江安徽学习考察总结交流会精神</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-6-19</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202306/0168714035597380.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['单义主持\u200b召开市委专题会议 传达学习贯彻辽宁省党政代表团赴江苏上海浙江安徽学习考察总结交流会精神-决策部署-朝阳市人民政府', '单义主持\u200b召开市委专题会议 传达学习贯彻辽宁省党政代表团赴江苏上海浙江安徽学习考察总结交流会精神', '6月17日，市委召开专题会议，传达学习贯彻辽宁省党政代表团赴江苏上海浙江安徽学习考察总结交流会精神，学习借鉴先进经验和做法，研究我市贯彻落实意见。市委书记单义主持并讲话。市领导张健、汪立坤、宁国军、孙永东，市政府党组成员、副市级干部宋臻参加。 单义指出，辽宁省党政代表团赴长三角三省一市学习考察，是省委、省政府深入贯彻落实习近平总书记关于辽宁振兴发展的重要指示精神的务实举措，是推动主题教育走深走实的具体行动，也是一次解放思想、转变观念，对标先进、寻找差距的学习之旅。我们要充分吸收借鉴三省一市的好经验、好做法，补齐短板、拉长长板，提升经济社会发展的质量和水平，切实把学习考察成果转化为加快推动全面振兴新突破三年行动的生动实践。 单义强调，“千万工程”是习近平总书记在浙江工作时亲自谋划、亲自部署、亲自推动的一项重大决策，是习近平新时代中国特色社会主义思想在浙江的成功实践。我们要进一步解放思想、转变观念，切实把浙江“千万工程”经验总结推广好、学习运用好，以实际行动推动全市农业农村高质量发展。要以杭州市小古城村为榜样，紧密结合实际，科学制定实施方案，加快培育朝阳的典型示范，以点带面推动全市乡村建设水平实现整体跃升，加快建设宜居宜业和美乡村。 单义强调，朝阳风光资源富集，区位优势明显，建设清洁能源基地具有得天独厚的优势。我们要认真学习借鉴安徽省做大做强光伏发电产业的经验做法，把发展清洁能源产业作为牵动绿色转型发展、构建现代化产业体系的重中之重，以创新性思维、突破性举措开发风电、光伏资源，加快向全产业链发展迈进，全力打造百亿级清洁能源产业基地，让清洁能源成为朝阳产业转型升级的重要支撑，为实施全面振兴新突破三年行动奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>46</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>朝阳市考察团赴镇江学习考察并进行对口合作交流</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-6-13</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202306/0168662415565491.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['6月11日—12日，朝阳市考察团赴江苏镇江学习考察并举行镇江市·朝阳市对口合作工作交流座谈会，进一步深化拓展各领域交流合作，扎实推动两市高质量发展。朝阳市委书记单义出席并讲话，镇江市委书记马明龙主持会议并讲话。', '马明龙代表镇江市委、市政府对朝阳市考察团的到来表示欢迎，并向朝阳长期以来支持镇江改革发展表示感谢。他说，近年来，朝阳市深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，认真落实党的二十大作出的“推动东北全面振兴取得新突破”的决策部署，围绕实现“八个新突破”的总体目标，全力实施全面振兴新突破三年行动，经济社会发展取得长足进步，我们为朝阳改革发展取得的新成就、实现的新突破感到由衷高兴。希望两市充分发挥比较优势，在抢抓重大战略机遇、加快构建现代化产业体系、做强教育人才支撑、促进两地交往交流、完善对口工作机制等方面深化高质量合作，共同谱写镇江和朝阳合作共赢新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>46</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议对我市党政代表团赴赤峰市学习考察进行总结</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-5-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202305/0168507419784530.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['市委常委会召开（扩大）会议 对我市党政代表团赴赤峰市学习考察进行总结-政务要闻-朝阳市人民政府', '5月25日，市委常委会召开（扩大）会议，对我市党政代表团赴赤峰市学习考察进行总结，推动学习考察成果转化为高质量发展的具体思路和务实举措，努力在全面振兴新突破三年行动中展现更大担当和作为。市委书记单义主持会议并讲话，市委副书记、市长谢卫东讲话并部署工作，市领导刘朝震、樊功成、牛殿祥分别发言。', '单义指出，组织党政代表团赴赤峰市学习考察，是全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的务实举措，是全面落实省委书记郝鹏朝阳调研讲话精神和辽宁省党政代表团赴两省一区学习考察总结交流会精神的具体行动。考察过程中，代表团一路走一路学一路思考，学习了赤峰市的好经验、好做法，深化了彼此的务实合作，受到了启发、激发了动力。全市广大干部不仅要在思想上受到触动，更要落实到行动上、体现在工作中，以实际行动打好打赢新时代“辽沈战役”。', '单义强调，要牢牢把握高质量发展这个首要任务，紧密结合朝阳实际，把学习考察成果充分运用到实施三年行动的火热实践中。一要进一步解放思想，自觉养成在吃透党中央精神前提下开展工作的习惯，有针对性地开展解放思想、更新观念活动，推动各级干部树立新观念新思维，用新思路新理念谋划超常规举措。二要进一步突出重点，坚持把招商引资和项目建设作为重中之重，聚焦清洁能源、氢能源、有色金属和非金属材料等新兴产业，全力包装和引进一批战略新兴项目、高技术产业项目。三要进一步放大优势，聚焦冶金、石化、建材、能源、农产品加工、装备制造等优势主导产业，全力抓好补链、延链、升链等各项工作，加快推动传统产业向中高端迈进。四要进一步加强区域协同，聚焦建设融入京津冀协同发展战略先导区，扎实推进“六市联盟”建设，深入开展省级开发区能级提升行动，全面参与东北海陆大通道建设，用好国家承接产业转移示范区重要平台，不断提升朝阳开放合作水平。五要进一步改善城乡形象，聚焦创建全国文明城市提名城市、建设宜居宜业和美乡村目标任务，运用好浙江“千万工程”经验做法，扎实开展农村人居环境整治五年行动，不断提升城乡精细化管理水平。六要进一步转变作风，大力发扬斗争精神，全面优化营商环境，全力推进产业发展、城市治理、安全生产等重点任务落实落地，以优良作风确保振兴突破有力推进。七要进一步加强考核督导，坚持以实绩论英雄，形成能者上、优者奖、庸者下、劣者汰的选人用人导向，全面激发各级干部大干三年、奋斗三年的激情和干劲，为实现全面振兴新突破三年行动首战告捷提供坚强保障。', '谢卫东在部署工作时指出，通过到赤峰市考察学习，我们看到赤峰市的发展思路十分清晰、经济增长势头强劲、园区和项目建设突飞猛进、城市建管日新月异、创业干事氛围浓厚。我们要学习他们思想上的全面解放、善于借势借力的机遇意识、一张蓝图绘到底的坚持精神、敢想敢试敢干的担当意识和务实工作态度、精细严谨的工作作风，按照中央及省、市委的部署要求，吃透精神、吃透政策，转变观念、拼抢争实，坚决把学习成果转化为谋发展、抓项目、促振兴、求突破的实际行动。要坚定不移推动项目建设做大经济总量，在牢牢守住“三个坚决不要”的前提下，大抓招商、大抓项目，掀起新一轮项目建设热潮。要毫不动摇做好“三篇大文章”推动传统产业做优做大做强，围绕打造“5211百亿级产业基地”，全面做好延链、补链、强链文章。要全力以赴推动战略新兴产业引育壮大成长，围绕战略新兴“一县一业”、清洁能源“一县一特色”，全力做强未来支撑产业。要坚持不懈“走出去”“请进来”强化项目储备，充分发挥7个省级开发区平台作用，全力开展以商招商、以情招商、产业链招商、市场化招商，加快形成新的经济增长点。要持续不断改善基础设施增进民生福祉，强化项目谋划争取，全面提升人民群众的获得感、幸福感、安全感。要竭尽全力抓好区域对接和交流合作，全力落实好合作事项对接和推动工作，切实把学习考察成果转化为推动高质量发展的实际行动。', '会上，北票市委、建平县委、市发改委党组、市工信局党组、市商务局党组、市文旅广电局党组主要负责同志作交流发言。凌源市委、朝阳县委、喀左县委、双塔区委、龙城区委、市交通运输局党组、市农业农村局党组作书面交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>46</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>我市党政代表团赴赤峰市学习考察并举行座谈会</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-5-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202305/0168497957503872.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['5月23日至24日，我市党政代表团赴内蒙古自治区赤峰市学习考察并举行朝阳市•赤峰市深化区域交流合作座谈会，畅叙友邻情谊、深化务实合作，扎实推动东北全面振兴取得新突破。朝阳市委书记、市人大常委会党组书记单义出席并讲话，赤峰市委书记万超岐主持并讲话。朝阳市委副书记、市长谢卫东，赤峰市委副书记、市长王旺盛分别介绍两市经济社会发展情况及合作对接事项有关情况。朝阳市领导刘朝震、汪立坤、樊功成、牛殿祥，赤峰市领导陈占英、孟晓冰、边中悦、赵志刚、邱文博出席。', '单义代表朝阳市委、市政府对赤峰市的热情接待和周到安排表示感谢。他说，此次赤峰学习考察，旨在深入贯彻党的二十大精神，认真落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，全面落实中央及省委部署要求，与赤峰市共叙兄弟之情、共商发展大计，进一步深化交流合作，实现互利共赢，以高质量区域协作助推两地高质量振兴发展。近年来赤峰市乘着习近平总书记亲临视察的东风，牢记嘱托、感恩奋进，完整、准确、全面贯彻新发展理念，紧紧围绕“五个发展定位”、建设区域中心城市、打造“双子星座”的目标，全力加快建设“六个赤峰”，经济社会发展取得了显著成效，成为了蒙东地区的排头兵。特别是赤峰市广大干部自信满满、昂扬向上的工作作风，给人留下了深刻的印象，非常值得学习借鉴。我们要认真学习赤峰市的好经验、好做法，切实把学习考察结果转化为推进高质量发展的扎实成效。希望双方进一步加强产业合作，合力建设现代化产业体系，引导和推动产业链上下游企业加强合作、融合发展，扩链成群，织链成网。进一步加强交通合作，合力构筑开放新格局，为实现互联互通提供更加便利的条件。进一步加强能源合作，合力推动清洁能源破局成势，让清洁能源成为两地推动经济高质量发展的重要引擎。进一步加强文旅合作，合力建设旅游大环线，加快红山文化联合申遗进度，使之成为两地共用的旅游“金名片”。进一步加强生态合作，合力把绿水青山变成金山银山，共同筑牢京津冀蒙辽生态屏障。进一步加强协调机制建设，合力把双方合作做深做实，共同把习近平总书记为东北擘画的全面振兴蓝图变成美好现实。', '万超岐代表赤峰市委、市政府对朝阳市党政代表团的到来表示欢迎。他说，近年来，朝阳市全力以赴拼经济、兴产业、抓发展，经济社会发展取得的成绩令人瞩目。当前，赤峰市正在深入推进习近平总书记交给内蒙古的“五大任务”和建设“模范自治区”两件大事，朝阳市正按照省委关于打好打赢新时代“辽沈战役”的要求，实施全面振兴新突破三年行动。赤朝两地虽分属不同省区但目标一致，承担不同使命但愿望相同。期待两地展开全方位、宽领域、深层次的交流合作，携手并肩实现高质量发展。一是深化交流沟通，促进信息共通、资源共享、市场共拓，持续深化携手发展、互促共赢的良好局面。二是大力发展产业合作，努力深化合作、携手发展，共同谱写高质量发展新篇章。三是促进文化共融，全力推进两地联合申遗工作，共同推动文艺市场交流互鉴、共同繁荣。四是推动生态共治，做好生态保护，共同维护生态安全。五是加强合作共建，发挥推动前导作用，共促区域协调发展，推动两地合作不断结出新硕果、不断取得新进步。', '在赤峰市期间，我市党政代表团实地考察了中唐特钢有限公司、赤峰市农牧科技产业园、内蒙古赤峰商贸服务物流园区红山园、赤峰博物馆，详细了解产业发展、园区建设、项目招商、文旅融合等情况，并与赤峰市有关方面就加强合作发展进行了深入交流。在考察赤峰高新技术产业开发区元宝山产业园、远景零碳技术（赤峰）有限公司、内蒙古大地云天化工有限公司、赤峰高新区东山园区、赤峰金通铜业有限公司、内蒙古星耀新材料有限公司、内蒙古天奇蒙药集团、赤峰红山国家森林公园、红山文化博物馆时，代表团认真学习赤峰市在新能源产业、高新区发展、工业项目建设、城市基础设施、生态环境建设、文旅产业发展等方面的先进经验。大家纷纷表示，通过学习考察，打开了思路、拓宽了视野、增添了动力，增强了干劲，收获颇丰、受益匪浅，一定把受到的思想触动，转化为加快实现全面振兴新突破的实际行动。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>46</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>单义主持召开市委常委会扩大会议传达落实辽宁省党政代表团赴江苏上海浙江安徽学习考察情况及总结交流会会议精神谢卫东出席</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-6-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.chaoyang.gov.cn/html/CYSZF/202306/0168722990019221.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['单义主持召开市委常委会（扩大）会议 传达落实辽宁省党政代表团赴江苏上海浙江安徽学习考察情况及总结交流会会议精神 谢卫东出席-决策部署-朝阳市人民政府', '单义主持召开市委常委会（扩大）会议 传达落实辽宁省党政代表团赴江苏上海浙江安徽学习考察情况及总结交流会会议精神 谢卫东出席', '6月19日，市委常委会召开（扩大）会议，传达落实辽宁省党政代表团赴江苏、上海、浙江、安徽学习考察及总结交流会会议精神，安排部署我市贯彻落实工作。市委书记单义主持并讲话。谢卫东、刘朝震等市领导参加。', '会议指出，辽宁省党政代表团赴长三角三省一市学习考察，既是一次解放思想、开阔眼界的学习之旅，也是一次全面审视、寻找差距的醒脑之旅，更是一次启发思路、激发干劲的收获之旅，充分体现了省委坚决落实习近平总书记重要讲话和指示批示精神，跳出辽宁看辽宁、站位全国看辽宁的战略思维，充分展现了省委在更深层次、更宽领域、更高层面推动全面振兴新突破三年行动的坚定决心，充分反映了省委在新时代东北振兴中求变图强、开拓奋进、合作共赢的责任担当。我们要充分吸收借鉴三省一市的好经验、好做法，紧密结合朝阳振兴发展实际，明确努力方向，强化成果运用，狠抓工作落实，补齐短板、拉长长板，全面提升经济社会发展的质量和水平，切实把学习考察成果转化为加快推动全面振兴新突破三年行动的生动实践。', '会议强调，要学习借鉴长三角地区解放思想观念、保持定力的经验做法，全面贯彻党的二十大精神，深入贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，按照省委工作部署，锚定全面振兴新突破三年行动确定的各项目标任务，进一步增强推动全面振兴新突破的责任感、使命感，进一步提升工作标准和专业水平，切实在南北思想碰撞、行动比拼中缩小差距，一锤接着一锤敲，一仗接着一仗打，以大干、奋斗的姿态实施好三年行动，在打好打赢新时代“辽沈战役”中展现更大担当和作为。', '会议强调，要学习借鉴长三角地区完整、准确、全面贯彻新发展理念，坚定不移推动高质量发展的经验做法，找准发展定位，更好发挥优势，全力以赴做好结构调整“三篇大文章”，围绕建设“5211百亿级产业基地”，加快建链延链补链强链，壮大规模、提升韧性，推动优势主导产业加快向产业链、价值链的中高端迈进，加快打造产业升级的新版本。', '会议强调，要学习借鉴长三角地区坚持创新驱动、集群发展的经验做法，在创新驱动传统产业转型升级、培育战略新兴产业上下功夫，深入推进“大学院所进园区进企业”，加快中试基地建设，在半导体新材料、先进装备制造、农产品精深加工、清洁能源等产业领域新建一批技术中心，加快工业企业数字化改造，提升开发区“六化”水平，不断释放经济发展的新活力。', '会议强调，要学习借鉴长三角地区推进文旅融合、深度开发的经验做法，坚决落实省文旅产业振兴发展大会精神，深度整合开发朝阳文旅资源，大力实施牛河梁遗址保护利用等项目，强力推进“文旅+”系列工程，积极开发京津冀蒙旅游市场，办好全省龙舟大赛、凌源百合节等重大节庆赛事活动，切实把资源优势转化为产业优势，加快建设休闲旅游目的地。', '会议强调，要学习借鉴长三角地区优化营商环境、助企纾困的经验做法，持续深化“放管服”改革，全面开展司法环境、政府诚信等五个专项整治，进一步完善城市大脑功能，建好用好“12345”平台，落实好项目管家制度，专人专班服务项目建设、企业发展，让企业家在朝阳投资安心、发展舒心。', '会议强调，要学习借鉴长三角地区深入践行“千万工程”、村美民富的经验做法，进一步解放思想、转变观念，学习运用好浙江经验，紧密结合实际，科学制定实施方案，深入开展农村人居环境整治提升和高铁沿线外部环境整治，抓好典型示范，以点带面提升全市乡村建设水平，加快建设宜居宜业和美乡村。']</t>
         </is>
